--- a/SXSW Hackathon 2019 Data.xlsx
+++ b/SXSW Hackathon 2019 Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="10280" yWindow="1180" windowWidth="18520" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Number</t>
   </si>
@@ -90,14 +90,115 @@
   </si>
   <si>
     <t>0.9086433</t>
+  </si>
+  <si>
+    <t>Papa´s got a brand new bag</t>
+  </si>
+  <si>
+    <t>Georgie Fame</t>
+  </si>
+  <si>
+    <t>0.7544035</t>
+  </si>
+  <si>
+    <t>Mary Jane´s Last Dance</t>
+  </si>
+  <si>
+    <t>Tom Petty</t>
+  </si>
+  <si>
+    <t>1.2677312</t>
+  </si>
+  <si>
+    <t>The show must go on</t>
+  </si>
+  <si>
+    <t>Jim Broadband</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike </t>
+  </si>
+  <si>
+    <t>The game</t>
+  </si>
+  <si>
+    <t>Chico the DeBarge</t>
+  </si>
+  <si>
+    <t>0.729535</t>
+  </si>
+  <si>
+    <t>Our day will come</t>
+  </si>
+  <si>
+    <t>Amy Winehouse</t>
+  </si>
+  <si>
+    <t>1.0981877</t>
+  </si>
+  <si>
+    <t>She is a bad mama jama</t>
+  </si>
+  <si>
+    <t>Carl Carlington</t>
+  </si>
+  <si>
+    <t>0.9047526</t>
+  </si>
+  <si>
+    <t>Right where I need to be</t>
+  </si>
+  <si>
+    <t>Gary Allen</t>
+  </si>
+  <si>
+    <t>0.85952747</t>
+  </si>
+  <si>
+    <t>Stop doggin me</t>
+  </si>
+  <si>
+    <t>Johnnie Taylor</t>
+  </si>
+  <si>
+    <t>0.88725203</t>
+  </si>
+  <si>
+    <t>You should´ve told me</t>
+  </si>
+  <si>
+    <t>Kelly Price</t>
+  </si>
+  <si>
+    <t>0.91556644</t>
+  </si>
+  <si>
+    <t>Bem</t>
+  </si>
+  <si>
+    <t>Michael Jaclson</t>
+  </si>
+  <si>
+    <t>0.9444769</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,9 +232,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,39 +514,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="1.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -462,8 +567,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -482,8 +590,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -502,8 +613,11 @@
       <c r="G4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -522,8 +636,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -542,55 +659,238 @@
       <c r="G6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>168540</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>8423280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>1492377</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>151825</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>16516881</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>5076459</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>824599</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>4801089</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>4512063</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>5803203</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/SXSW Hackathon 2019 Data.xlsx
+++ b/SXSW Hackathon 2019 Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>Number</t>
   </si>
@@ -183,6 +183,84 @@
   </si>
   <si>
     <t>0.9444769</t>
+  </si>
+  <si>
+    <t>I´m the plug</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Stepped on my j´z</t>
+  </si>
+  <si>
+    <t>Nelly</t>
+  </si>
+  <si>
+    <t>Magic Bus</t>
+  </si>
+  <si>
+    <t>The Whoo</t>
+  </si>
+  <si>
+    <t>The electric co</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>0.80582285</t>
+  </si>
+  <si>
+    <t>Saviour</t>
+  </si>
+  <si>
+    <t>Rise against</t>
+  </si>
+  <si>
+    <t>Red Red Wine</t>
+  </si>
+  <si>
+    <t>Neil Diamond</t>
+  </si>
+  <si>
+    <t>1.1771723</t>
+  </si>
+  <si>
+    <t>Aint no grave</t>
+  </si>
+  <si>
+    <t>Johnny Cash</t>
+  </si>
+  <si>
+    <t>1.1954225</t>
+  </si>
+  <si>
+    <t>At last</t>
+  </si>
+  <si>
+    <t>Etta Janes</t>
+  </si>
+  <si>
+    <t>1.0348469</t>
+  </si>
+  <si>
+    <t>Amazing Grace</t>
+  </si>
+  <si>
+    <t>Nana Mouskouri</t>
+  </si>
+  <si>
+    <t>0.83238655</t>
+  </si>
+  <si>
+    <t>Happy Happy Happy Wedding Day</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>1.1400715</t>
   </si>
 </sst>
 </file>
@@ -514,15 +592,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="1.33203125" style="1" customWidth="1"/>
   </cols>
@@ -893,428 +971,614 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>48557410</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>4359488</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>4735362</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>3128392</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <v>49697071</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22">
+        <v>37858536</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>8216660</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24">
+        <v>5510572</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25">
+        <v>596677</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26">
+        <v>4667290</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>100</v>
       </c>
     </row>

--- a/SXSW Hackathon 2019 Data.xlsx
+++ b/SXSW Hackathon 2019 Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>Number</t>
   </si>
@@ -261,13 +261,22 @@
   </si>
   <si>
     <t>1.1400715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It´s not unusual </t>
+  </si>
+  <si>
+    <t>Tom Jones</t>
+  </si>
+  <si>
+    <t>1.3036091</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +288,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,11 +326,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,26 +989,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>48557410</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G17">
+      <c r="F17" s="5"/>
+      <c r="G17" s="4">
         <v>2</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1201,15 +1220,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>26</v>
-      </c>
-    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27">
+        <v>3129566</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1219,366 +1256,371 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>100</v>
       </c>
     </row>

--- a/SXSW Hackathon 2019 Data.xlsx
+++ b/SXSW Hackathon 2019 Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>Number</t>
   </si>
@@ -270,6 +270,24 @@
   </si>
   <si>
     <t>1.3036091</t>
+  </si>
+  <si>
+    <t>Can he do it</t>
+  </si>
+  <si>
+    <t>Ready for the world</t>
+  </si>
+  <si>
+    <t>1.1396056</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Double Trouble</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
   </si>
 </sst>
 </file>
@@ -613,7 +631,7 @@
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1246,12 +1264,48 @@
     <row r="28" spans="1:8" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29">
+        <v>4813873</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30">
+        <v>166915</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
